--- a/biology/Botanique/Liste_des_espèces_d'érables/Liste_des_espèces_d'érables.xlsx
+++ b/biology/Botanique/Liste_des_espèces_d'érables/Liste_des_espèces_d'érables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+          <t>Liste_des_espèces_d'érables</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le liste des espèces d'érables (genre Acer) comprend plus de cent espèces. Celles ayant un feuillage persistant sont repérées par le signe #. Les espèces et sections éteintes sont signalées par le symbole †.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+          <t>Liste_des_espèces_d'érables</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,17 +525,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Section Acer
-Série Acer
+          <t>Section Acer</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Série Acer
 Acer caesium Wall. ex Brandis
 Acer giraldii Pax – Érable de Girald
 Acer heldreichii Orph. ex Boiss. – Érable des Balkans
 Acer pseudoplatanus L. – Érable sycomore
-Acer trautvetteri Medwed. – Érable de Trautvetter[1]
+Acer trautvetteri Medwed. – Érable de Trautvetter
 Acer vanvolxemii Masters Voir A. velutinum
 Acer velutinum Boiss. – Érable velours
 Série Monspesulana
-Acer granatense Boiss. –  Érable d'Espagne[2]
+Acer granatense Boiss. –  Érable d'Espagne
 Acer hyrcanum Fisch. &amp; Meyer – Érable des Balkans
 Acer monspessulanum L. – Érable de Montpellier
 Acer obtusifolium Sibthorp &amp; Smith – # Érable de Syrie
@@ -534,48 +551,286 @@
 Acer trilobatum Lamb. Voir A. monspessulanum
 Série Saccharodendron
 Acer barbatum Michx. Voir A. floridanum
-Acer floridanum (Chapm.) Pax – Érable de Floride[3]
-Acer grandidentatum Torr. &amp; Gray –[4]
-Acer leucoderme Small – [5]
-Acer nigrum Michx.f. – Érable noir [6]
-Acer skutchii Rehder – Érable de Skutch[7]
-Acer saccharum Marshall – Érable à sucre
-Section † Alaskana
-†Acer alaskense Wolfe &amp; Tanai  (Paléocène inférieur, Vallée de la Matanuska, Alaska)[8]
-Section †Douglasa
-†Acer douglasense Wolfe &amp; Tanai (Éocène inférieur, Cap Douglas (Alaska))[8]
-Section Ginnala
-Série Ginnala
-Acer aidzuense Franch.[9]
-Acer ginnala Maxim. –  Érable de l’Amour[10]
+Acer floridanum (Chapm.) Pax – Érable de Floride
+Acer grandidentatum Torr. &amp; Gray –
+Acer leucoderme Small – 
+Acer nigrum Michx.f. – Érable noir 
+Acer skutchii Rehder – Érable de Skutch
+Acer saccharum Marshall – Érable à sucre</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Section † Alaskana</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>†Acer alaskense Wolfe &amp; Tanai  (Paléocène inférieur, Vallée de la Matanuska, Alaska)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Section †Douglasa</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>†Acer douglasense Wolfe &amp; Tanai (Éocène inférieur, Cap Douglas (Alaska))</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Section Ginnala</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Série Ginnala
+Acer aidzuense Franch.
+Acer ginnala Maxim. –  Érable de l’Amour
 Acer semenovii Regel &amp; Herder
 Acer tataricum L. – Érable de Tartarie
 Series incertae sedis
-†Acer ashwilli Wolfe &amp; Tanai (Oligocène inférieur, Oregon central)[8]
-Section Glabra
-Série Arguta
+†Acer ashwilli Wolfe &amp; Tanai (Oligocène inférieur, Oregon central)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Section Glabra</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Série Arguta
 Acer acuminatum Wall. ex D.Don
 Acer argutum Maxim.
 Acer barbinerve Maxim.
-†Acer ivanofense Wolfe &amp; Tanai (Éocène supérieur to Early Oligocene, Meshik Volcanics, Alakska)[8]
+†Acer ivanofense Wolfe &amp; Tanai (Éocène supérieur to Early Oligocene, Meshik Volcanics, Alakska)
 Acer stachyophyllum Hiern – Érable à feuilles de bouleau
 Acer tetramerum Pax Voir A. stachyophyllum
 Série Glabra
 Acer glabrum Torr. – Érable nain
 Série incertae sedis
-†Acer traini Wolfe &amp; Tanai (Miocène inférieur à moyen, Ouest de l'Amérique du Nord)[8]
-Section Hyptiocarpa
-Série Hyptiocarpa
+†Acer traini Wolfe &amp; Tanai (Miocène inférieur à moyen, Ouest de l'Amérique du Nord)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Section Hyptiocarpa</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Série Hyptiocarpa
 Acer garrettii Craib
 Acer pinnatinervium Merrill
-Acer laurinum Hassk. - #
-Section Indivisa
-Série Indivisa
-Acer carpinifolium Siebold &amp; Zucc. – Érable à feuilles de charme
-Section Lithocarpa
-Série Lithocarpa
+Acer laurinum Hassk. - #</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Section Indivisa</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Série Indivisa
+Acer carpinifolium Siebold &amp; Zucc. – Érable à feuilles de charme</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Section Lithocarpa</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Série Lithocarpa
 Acer diabolicum Blume ex Koch
-Acer franchetii Pax[11]
+Acer franchetii Pax
 Acer leipoense Fang &amp; Soong
 Acer pilosum Maxim.
 Acer sinopurpurascens Cheng
@@ -587,21 +842,55 @@
 Acer tsinglingense W. P. Fang &amp; C. C. Hsieh
 Acer lungshengense W. P. Fang &amp; L. C. Hu
 Série Macrophylla
-Acer macrophyllum Pursh – Érable à grandes feuilles
-Section Macrantha
-Série Macrantha
+Acer macrophyllum Pursh – Érable à grandes feuilles</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Section Macrantha</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Série Macrantha
 Acer capillipes Maxim. – Érable jaspé de rouge
 Acer caudatifolium Hayata
 Acer crataegifolium Siebold &amp; Zucc. – Érable à feuilles d'aubépine
 Acer davidii Franch. – Érable du Père David
-Acer forrestii Diels – Érable de Forrest[12]
-Acer grosseri Pax – Érable de Grosser[13]
+Acer forrestii Diels – Érable de Forrest
+Acer grosseri Pax – Érable de Grosser
 Acer hersii Rehder Voir A. grosseri
 Acer komarovii Pojark. Voir A. tschonoskii
-Acer laxiflorum Pax[14]
+Acer laxiflorum Pax
 Acer micranthum Siebold &amp; Zucc.
 Acer morifolium Koidz.
-Acer maximowiczii Pax – Érable de Maximowicz[15]
+Acer maximowiczii Pax – Érable de Maximowicz
 Acer pectinatum Wall. ex Nicholson
 Acer pensylvanicum L.
 Acer rubescens Hayata
@@ -610,19 +899,87 @@
 Acer tegmentosum Maxim.
 Acer tschonoskii Murray
 Série incertae sedis
-†Acer castorrivularis Wolfe &amp; Tanai (Éocène supérieur, Beaver Creek Flora)[8]
-†Acer clarnoense Wolfe &amp; Tanai (Éocène supérieur, Formation de John Day)[8]
-†Acer dettermani Wolfe &amp; Tanai (Éocène supérieur - Oligocène inférieur, Meshik Volcanics)[8]
-†Acer latahense Wolfe &amp; Tanai (Miocène inférieur - Miocène tardif, Formations de Latah, Mascall, et Succor Creek)[8]
-†Acer palaeorufinerve Tanai &amp; Onoe (du Miocène au Pliocène, Asie orientale et Alaska)[8]
-Section Negundo
-Série Cissifolia
+†Acer castorrivularis Wolfe &amp; Tanai (Éocène supérieur, Beaver Creek Flora)
+†Acer clarnoense Wolfe &amp; Tanai (Éocène supérieur, Formation de John Day)
+†Acer dettermani Wolfe &amp; Tanai (Éocène supérieur - Oligocène inférieur, Meshik Volcanics)
+†Acer latahense Wolfe &amp; Tanai (Miocène inférieur - Miocène tardif, Formations de Latah, Mascall, et Succor Creek)
+†Acer palaeorufinerve Tanai &amp; Onoe (du Miocène au Pliocène, Asie orientale et Alaska)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Section Negundo</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Série Cissifolia
 Acer cissifolium (Siebold &amp; Zucc.) Koch – Érable à feuille de vigne
-Acer henryi Pax – Érable de Henry[16]
+Acer henryi Pax – Érable de Henry
 Série Negundo
-Acer negundo L. – Érable Négondo
-Section Palmata
-Séries Palmata
+Acer negundo L. – Érable Négondo</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Section Palmata</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Séries Palmata
 Acer ceriferum Rehder
 Acer circinatum Pursh – Érable circiné
 Acer circumlobatum Maxim. Voir A. japonicum
@@ -654,41 +1011,109 @@
 Acer confertifolium Merril &amp; Metcalf
 Acer elegantulum Fang &amp; Chiu
 Acer erianthum Schwer.
-Acer flabellatum Rehder[17]
+Acer flabellatum Rehder
 Acer fenzelianum Hand.-Mazz. – Érable de Fenzl
 Acer kweilinense Fang &amp; Fang f.
 Acer lampingense Fang &amp; Fang f.
 Acer mapienense Fang
 Acer miaoshanicum Fang
 Acer olivaceum Fang &amp; Chiu
-Acer oliverianum Pax – Érable de Oliver[18]
+Acer oliverianum Pax – Érable de Oliver
 Acer schneiderianum Pax &amp; Hoffman
 Acer serrulatum Hayata Voir A. oliverianum
 Acer shangszeense Fang &amp; Soong
 Acer sichourense Fang &amp; Fang f.
-Acer sinense Pax – Érable de Chine[19]
+Acer sinense Pax – Érable de Chine
 Acer sunyiense Fang
 Acer taipuense Fang
 Acer tonkinense Lecompte
 Acer tutcheri Duthie
-Acer wilsonii Rehder – Érable de Wilson[20]
+Acer wilsonii Rehder – Érable de Wilson
 Acer wuyuanense Fang &amp; Wu
-Acer yaoshanicum Fang
-Section Parviflora
-Série Caudata
+Acer yaoshanicum Fang</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Section Parviflora</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Série Caudata
 Acer caudatum Wall.
-Acer montanum Aiton Voir A. spicatum[21]
+Acer montanum Aiton Voir A. spicatum
 Acer spicatum Lamarck
-Acer ukurunduense Trautvetter &amp; Meyer – Érable d'Ukurundu[22]
+Acer ukurunduense Trautvetter &amp; Meyer – Érable d'Ukurundu
 Série Distyla
 Acer distylum Siebold &amp; Zucc. – Érable à feuilles de tilleul
 Série Parviflora
 Acer nipponicum Hara – Érable nipon
 Série incertae sedis
-†Acer browni Wolfe &amp; Tanai (Miocène inférieur-Miocène moyen; État de Washington, Oregon, Colombie-Britannique)[8]
-†Acer smileyi Wolfe &amp; Tanai (Oligocène tardif-Miocène moyen; Alaska, Idaho, Oregon, Nevada)[8]
-Section Pentaphylla
-Série Pentaphylla
+†Acer browni Wolfe &amp; Tanai (Miocène inférieur-Miocène moyen; État de Washington, Oregon, Colombie-Britannique)
+†Acer smileyi Wolfe &amp; Tanai (Oligocène tardif-Miocène moyen; Alaska, Idaho, Oregon, Nevada)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Section Pentaphylla</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Série Pentaphylla
 Acer pentaphyllum Diels
 Série Trifida
 Acer albopurpurascens Hayata Voir A. oblongum
@@ -696,103 +1121,411 @@
 Acer cinnamomifolium Hayata Voir A. coriaceifolium
 Acer cordatum Pax
 Acer coriaceifolium Lév. - #  Érable à feuilles de charme
-Acer discolor Maxim.[23]
-Acer fengii Murray[24] - #
+Acer discolor Maxim.
+Acer fengii Murray - #
 Acer lucidum Metcalf
 Acer oblongum Wall. ex DC. - #
 Acer paxii Franch. #
 Acer shihweii Chun &amp; Fang
 Acer sycopseoides Chun
 Acer yinkunii Fang
-Acer yuii Fang
-Section Platanoidea
-Série Platanoidea
+Acer yuii Fang</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Section Platanoidea</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Série Platanoidea
 Acer ambiguum Dipp. Voir A. pictum
-Acer amplum Rehder – Érable de Wilson [25]
+Acer amplum Rehder – Érable de Wilson 
 Acer campestre L. – Érable champêtre
 Acer cappadocicum Gled. – Érable de Cappadoce
-Acer lobelii Ten. – Érable de Lobel[26]
+Acer lobelii Ten. – Érable de Lobel
 Acer longipes Franch. ex Rehder
-Acer miaotaiense P.C.Tsoong[27]
+Acer miaotaiense P.C.Tsoong
 Acer miyabei Maxim. – Érable de Miyabe
 Acer pictum Maxim.
 Acer platanoides L. – Érable plane
 Acer nayongense Fang
 Acer tenellum Pax
 Acer tibetense Fang
-Acer truncatum Bunge
-Section Pubescentia
-Série Pubescentia
+Acer truncatum Bunge</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Section Pubescentia</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Série Pubescentia
 Acer fedschenkoanum Krishtofovich Voir A. pentapomicum
 Acer pentapomicum Stewart ex Brandis
 Acer pubescens Franch. Voir A. pentapomicum
-Acer regelii Pax Voir A. pentapomicum
-Section †Republica
-†Acer republicense Wolfe &amp; Tanai (Éocène inférieur, État de Washington)[8]
-Section †Rousea
-†Acer rousei Wolfe &amp; Tanai (Éocène inférieur, Colombie-Britannique)[8]
-Section Rubra
-Série Rubra
+Acer regelii Pax Voir A. pentapomicum</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Section †Republica</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>†Acer republicense Wolfe &amp; Tanai (Éocène inférieur, État de Washington)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Section †Rousea</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>†Acer rousei Wolfe &amp; Tanai (Éocène inférieur, Colombie-Britannique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Section Rubra</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Série Rubra
 Acer pycnanthum K.Koch
 Acer rubrum L. – Érable rouge
 Acer saccharinum L. – Érable argenté
 Série incertae sedis
-†Acer kenaicum Wolfe &amp; Tanai (Oligocène, groupe Kenai, Alaska)[8]
-†Acer taurocursum Wolfe &amp; Tanai (Éocène supérieur, Bull Run, Nevada)[8]
-†Acer chaneyi Knowlton (de l'Oligocène au Miocène, Ouest des États-Unis)
-Section †Stewarta
-†Acer hillsi Wolfe &amp; Tanai (Éocène inférieur, État de Washington)[8]
-†Acer stewarti Wolfe &amp; Tanai (Éocène inférieur, Colombie-Britannique)[8]
-Section †Torada
-†Acer stonebergae Wolfe &amp; Tanai (Éocène inférieur, État de Washington &amp; Colombie britannique)[8]
-†Acer toradense Wolfe &amp; Tanai (Éocène inférieur, État de Washington &amp; Colombie britannique)[8]
-†Acer washingtonense Wolfe &amp; Tanai (Éocène inférieur, État de Washington)[8]
-Section Trifoliata
-Série Grisea
+†Acer kenaicum Wolfe &amp; Tanai (Oligocène, groupe Kenai, Alaska)
+†Acer taurocursum Wolfe &amp; Tanai (Éocène supérieur, Bull Run, Nevada)
+†Acer chaneyi Knowlton (de l'Oligocène au Miocène, Ouest des États-Unis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Section †Stewarta</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>†Acer hillsi Wolfe &amp; Tanai (Éocène inférieur, État de Washington)
+†Acer stewarti Wolfe &amp; Tanai (Éocène inférieur, Colombie-Britannique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Section †Torada</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>†Acer stonebergae Wolfe &amp; Tanai (Éocène inférieur, État de Washington &amp; Colombie britannique)
+†Acer toradense Wolfe &amp; Tanai (Éocène inférieur, État de Washington &amp; Colombie britannique)
+†Acer washingtonense Wolfe &amp; Tanai (Éocène inférieur, État de Washington)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Section Trifoliata</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Série Grisea
 Acer griseum (Franch.) Pax – Érable à écorce de papier
 Acer maximowiczianum Miq.
 Acer nikoense Maxim. Voir A. maximowiczianum
 Acer triflorum Komarov – Érable à trois fleurs
 Série Mandshurica
 Acer mandshuricum Maxim. – Érable de Mandchourie
-Acer sutchuenense Franch.
-Section Wardiana
-Série Wardiana
+Acer sutchuenense Franch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sections et séries</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Section Wardiana</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Série Wardiana
 Acer wardii W.W.Smith</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'érables</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Acer × bormuelleri Borbas (A. monspessulanum × A. campestre ou A. opalus)
 Acer × boscii Spach (A. monspessulanum × A. tataricum or A. pensylvanicum × A. tataricum, possibly A. tataricum  × A. campestre)
 Acer × conspicuum van Gelderen &amp; Otterdoom (A. davidii × A. pensylvanicum)
 Acer × coriaceum Bosc ex Tausch (A. monspessulanum × A. opalus' ssp. obtusatum)
-Acer × dieckii van Gelderen &amp; Otterdoom Voir A. platanoides[28]
+Acer × dieckii van Gelderen &amp; Otterdoom Voir A. platanoides
 Acer × durrettii Pax Voir A. × coriaceum
 Acer × freemanii Murray (A. rubrum × A. saccharinum)
 Acer × hillieri Lancaster (A. miyabei × A. cappadocicum 'Aureum')
@@ -802,7 +1535,7 @@
 Acer × ramosum Jordan (A. monspessulanum × A. opalus)
 Acer × rotundilobum Schwer. Voir A. × coriaceum
 Acer × schwerinii Pax (uncertain, maybe A. crataegifolium × A. rufinerve)
-Acer × zoeschense Pax (A. campestre ×  A. cappadocicum ou A. lobelii)[29]</t>
+Acer × zoeschense Pax (A. campestre ×  A. cappadocicum ou A. lobelii)</t>
         </is>
       </c>
     </row>
